--- a/cloud_scheduling_try_priority_grouped.xlsx
+++ b/cloud_scheduling_try_priority_grouped.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pierlim/PycharmProjects/genetic_algorithm_cloud_scheduling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EA6F1C-DBC3-A74E-981D-CE79EEE8ACCB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353FDC73-062B-C441-B02B-A5A82CFD3D31}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="2" r:id="rId1"/>
@@ -187,7 +187,6 @@
     <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="179021" calcMode="manual"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -842,7 +841,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -14484,7 +14483,7 @@
   <dimension ref="A3:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -14582,7 +14581,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="R5">
-        <f t="shared" ref="R5:R13" si="1">Q6-Q5</f>
+        <f t="shared" ref="R5:R12" si="1">Q6-Q5</f>
         <v>0.39999999999999991</v>
       </c>
     </row>
